--- a/biology/Médecine/Sleeve_gastrectomie/Sleeve_gastrectomie.xlsx
+++ b/biology/Médecine/Sleeve_gastrectomie/Sleeve_gastrectomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La sleeve gastrectomie, ou gastrectomie longitudinale ou gastrectomie partielle par plicature ou gastrectomie pariétale ou encore gastrectomie tubulaire, est une technique restrictive de chirurgie bariatrique destinée au traitement de l'obésité sévère, qui consiste à retirer les deux tiers gauches de l'estomac[1].
+La sleeve gastrectomie, ou gastrectomie longitudinale ou gastrectomie partielle par plicature ou gastrectomie pariétale ou encore gastrectomie tubulaire, est une technique restrictive de chirurgie bariatrique destinée au traitement de l'obésité sévère, qui consiste à retirer les deux tiers gauches de l'estomac.
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Développement de la technique
-En mars 1988, le docteur américain Doug Hess, de Bowling Green dans l’Ohio, réalise la première gastrectomie longitudinale comme première partie d'une dérivation biliopancréatique[2]. Il s'agit alors d'une extension de fundoplicature[3] pour prévenir le reflux œsophagien. À partir de 1999, des essais de dérivation biliopancréatique par cœlioscopie sont menés sur les porcs. Ils permettent de valider la faisabilité d'une gastrectomie longitudinale par cœlioscopie sur l'être humain. À partir de 2001, de bons résultats cliniques permettent à la gastrectomie longitudinale par cœlioscopie de devenir une opération de première intention, permettant de sécuriser la réalisation dans un second temps d'un court-circuit gastrique. En 2008, la Haute Autorité de Santé publie un rapport d'évaluation technologique officialisant les conditions d'application de la technique[4].
-Nom et classification
-Selon la Classification internationale des maladies, la gastrectomie longitudinale, décrite comme une « résection en manchon de l'estomac[5] », fait partie des « autres gastrectomies partielles[6] ». Le nom d'usage anglais de cette intervention est « sleeve gastrectomy », soit traduit mot-à-mot « gastrectomie en manchon[7] », la poche stomacale prenant une forme cylindrique après ablation de sa partie gauche. Depuis 2012, la commission générale de terminologie et de néologie française recommande le terme « gastrectomie longitudinale » comme traduction de « sleeve gastrectomy »[8]. Ce terme recommandé reste cependant en concurrence avec le calque franglais « sleeve gastrectomie » utilisé par les médias[9],[10] et les praticiens[11],[12].
-En allemand, cette opération est nommée « Schlauchmagen », soit « estomac en manchon », ou « Schlauchmagenbildung », pour « formation d'un estomac en manchon » . En italien, on parle de « gastrectomia verticale parziale », soit d'une « gastrectomie verticale partielle ».
+          <t>Développement de la technique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 1988, le docteur américain Doug Hess, de Bowling Green dans l’Ohio, réalise la première gastrectomie longitudinale comme première partie d'une dérivation biliopancréatique. Il s'agit alors d'une extension de fundoplicature pour prévenir le reflux œsophagien. À partir de 1999, des essais de dérivation biliopancréatique par cœlioscopie sont menés sur les porcs. Ils permettent de valider la faisabilité d'une gastrectomie longitudinale par cœlioscopie sur l'être humain. À partir de 2001, de bons résultats cliniques permettent à la gastrectomie longitudinale par cœlioscopie de devenir une opération de première intention, permettant de sécuriser la réalisation dans un second temps d'un court-circuit gastrique. En 2008, la Haute Autorité de Santé publie un rapport d'évaluation technologique officialisant les conditions d'application de la technique.
 </t>
         </is>
       </c>
@@ -544,12 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Statistiques</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette technique est devenue la première en nombre pour la chirurgie bariatrique[13].
+          <t>Nom et classification</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la Classification internationale des maladies, la gastrectomie longitudinale, décrite comme une « résection en manchon de l'estomac », fait partie des « autres gastrectomies partielles ». Le nom d'usage anglais de cette intervention est « sleeve gastrectomy », soit traduit mot-à-mot « gastrectomie en manchon », la poche stomacale prenant une forme cylindrique après ablation de sa partie gauche. Depuis 2012, la commission générale de terminologie et de néologie française recommande le terme « gastrectomie longitudinale » comme traduction de « sleeve gastrectomy ». Ce terme recommandé reste cependant en concurrence avec le calque franglais « sleeve gastrectomie » utilisé par les médias, et les praticiens,.
+En allemand, cette opération est nommée « Schlauchmagen », soit « estomac en manchon », ou « Schlauchmagenbildung », pour « formation d'un estomac en manchon » . En italien, on parle de « gastrectomia verticale parziale », soit d'une « gastrectomie verticale partielle ».
 </t>
         </is>
       </c>
@@ -575,18 +596,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Statistiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette technique est devenue la première en nombre pour la chirurgie bariatrique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sleeve_gastrectomie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sleeve_gastrectomie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Indication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette intervention s'adresse exclusivement à un public adulte remplissant trois conditions[14] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette intervention s'adresse exclusivement à un public adulte remplissant trois conditions :
 L’obésité du patient nuit à sa qualité de vie :
 Soit son indice de masse corporel (IMC) est supérieur à 40 kg/m2
 Soit son IMC est supérieur à 35 kg/m2 et il souffre d'une affection pouvant être améliorée grâce à la chirurgie (diabète, hypertension artérielle, syndrome d’apnées du sommeil, troubles articulaires...)
 Le patient a suivi sans succès un régime sous contrôle médical
 Le patient ne présente aucune contre-indication à la chirurgie
-Elle peut — de manière exceptionnelle — être pratiquée sur un adolescent remplissant plusieurs critères physiologiques supplémentaires[15] :
+Elle peut — de manière exceptionnelle — être pratiquée sur un adolescent remplissant plusieurs critères physiologiques supplémentaires :
 Avoir un score de Tanner supérieur ou égal à IV, soit un âge osseux supérieur ou égale à 13 ans chez les filles et 15 ans chez les garçons ;
 Avoir plus de 15 ans (ou éventuellement entre 13 et 15 ans) ;
 L’obésité du patient nuit à sa qualité de vie :
@@ -597,41 +653,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sleeve_gastrectomie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sleeve_gastrectomie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Principe de l'intervention</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Préalablement à l'intervention, le patient doit suivre durant 15 jours un régime pré-opératoire strict — équilibré mais qui épargne au foie de trop travailler — pour réduire la taille de cet organe et faciliter le travail du chirurgien[16].
-La gastrectomie longitudinale peut être décrite comme une gastroplastie verticale calibrée avec résection gastrique. La partie retirée (grande courbure de l'estomac) laisse la partie la moins distensible de l'estomac et ôte la partie « endocrine » de cet organe, avec altération de la fonction neurohumorale[17].
-En l'absence de complications qui peuvent être importantes, l'intervention dure environ deux heures et nécessite trois à huit jours d'hospitalisation.
-Une technique alternative se fait uniquement par voie endoscopique par réduction de la taille de l'estomac par suture interne[18].
-La capacité résiduelle de l'estomac est de 100 à 200 ml, selon les sources[19].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -653,10 +674,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Principe de l'intervention</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Préalablement à l'intervention, le patient doit suivre durant 15 jours un régime pré-opératoire strict — équilibré mais qui épargne au foie de trop travailler — pour réduire la taille de cet organe et faciliter le travail du chirurgien.
+La gastrectomie longitudinale peut être décrite comme une gastroplastie verticale calibrée avec résection gastrique. La partie retirée (grande courbure de l'estomac) laisse la partie la moins distensible de l'estomac et ôte la partie « endocrine » de cet organe, avec altération de la fonction neurohumorale.
+En l'absence de complications qui peuvent être importantes, l'intervention dure environ deux heures et nécessite trois à huit jours d'hospitalisation.
+Une technique alternative se fait uniquement par voie endoscopique par réduction de la taille de l'estomac par suture interne.
+La capacité résiduelle de l'estomac est de 100 à 200 ml, selon les sources.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sleeve_gastrectomie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sleeve_gastrectomie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Évaluation des bénéfices et risques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette intervention a plusieurs points positifs et des effets secondaires :
 la perte de poids est durable ;
@@ -665,12 +725,12 @@
 elle entraîne une sensation rapide de satiété, comme la gastroplastie ;
 elle ne nécessite pas la mise en place d'un corps étranger (anneau gastrique) ;
 les vomissements sont moins fréquents qu'avec la gastroplastie, mais de rares cas de reflux existent ;
-elle diminue le taux de ghréline[1], et donc la sensation de faim, comme dans le court-circuit gastrique ;
+elle diminue le taux de ghréline, et donc la sensation de faim, comme dans le court-circuit gastrique ;
 elle peut être à l'origine de carences nutritionnelles ;
 certains médicaments ne peuvent plus être prescrits suivant les règles standards à cause de leur nocivité sur l'estomac. Un réajustement du traitement sera alors nécessaire;
 pour les femmes en période fertile, une contraception hormonale autre que par voie orale est nécessaire, la substance n'étant plus métabolisée par l'organisme.
-Certaines équipes chirurgicales[Lesquelles ?] pratiquent actuellement la sleeve en première intention. En 2009, la mortalité de l'intervention est estimée à 0,2 %[1].
-Dans 0,26 à 4 % des cas, on observe un rétrécissement de l'estomac[20], le plus souvent localisé au niveau de l'incisure angulaire[21], qui nécessite un suivi médical particulier.
+Certaines équipes chirurgicales[Lesquelles ?] pratiquent actuellement la sleeve en première intention. En 2009, la mortalité de l'intervention est estimée à 0,2 %.
+Dans 0,26 à 4 % des cas, on observe un rétrécissement de l'estomac, le plus souvent localisé au niveau de l'incisure angulaire, qui nécessite un suivi médical particulier.
 Contre-indication absolue: présence de reflux gastro-œsophagien (RGO) constaté par un examen des variations du pH oeso-gastrique, sur 24 ou 48 h.
 Après l'opération, le premier mois de réalimentation comprend une phase de repas équilibrés mixés lisses; on passe ensuite à des repas de consistance normale mais de quantité réduite, sachant que les quantités ingérées vont progressivement augmenter pour atteindre à 3 mois le maximum de ce qui peut être pris en un repas. 
 Une préparation soigneuse, qui peut durer jusqu'à 2 ans jusqu'au feu vert pour l'opération, permet d'explorer les habitudes alimentaires et de les modifier avant l'intervention: faire durer les repas sur 30', en mastiquant les aliments jusqu'à obtenir une consistance de purée / surveiller l'apparition de la sensation de satiété et respecter ce signal / répartir les prises alimentaires sur 3 repas et 2 collations par jour / boire 1, 5 à 2 litres de liquide par jour et uniquement entre les repas / intégrer une activité physique régulière / comprendre et assimiler la notion de repas équilibrés, basés sur la pyramide alimentaire. Un suivi psychologique peut être nécessaire pour arriver à mettre en place ces mesures, et faciliter la transition.
@@ -681,35 +741,37 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Sleeve_gastrectomie</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sleeve_gastrectomie</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Suivi à long terme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le  principal problème est représenté par la méconnaissance des résultats à long terme.
-À cinq ans, les résultats semblent intermédiaires entre la gastroplastie et le court-circuit gastrique. C'est-à-dire — en moyenne — une perte de poids de l'ordre de 60 % de l'excès de poids (cohorte de 68 personnes)[22], et selon d'autres sources, 30%.
-Sur une autre cohorte de 443 personnes, la perte de poids est de 76,8 % à un an mais la tendance s'inverse à plus long terme (69,7 %  à 3 ans et 56,1 % à 5 ans). À 5 ans, ce travail montre une absence d'amélioration du cholestérol total et un retour du diabète[23].</t>
+À cinq ans, les résultats semblent intermédiaires entre la gastroplastie et le court-circuit gastrique. C'est-à-dire — en moyenne — une perte de poids de l'ordre de 60 % de l'excès de poids (cohorte de 68 personnes), et selon d'autres sources, 30%.
+Sur une autre cohorte de 443 personnes, la perte de poids est de 76,8 % à un an mais la tendance s'inverse à plus long terme (69,7 %  à 3 ans et 56,1 % à 5 ans). À 5 ans, ce travail montre une absence d'amélioration du cholestérol total et un retour du diabète.</t>
         </is>
       </c>
     </row>
